--- a/resources/experiment 2/metrics/R2/upto time/Infarto de Miocardio (UPTO).xlsx
+++ b/resources/experiment 2/metrics/R2/upto time/Infarto de Miocardio (UPTO).xlsx
@@ -465,10 +465,10 @@
         <v>-7.182238711347328</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.182238711347328</v>
+        <v>-7.182238711347325</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.182238711347328</v>
+        <v>-7.182238711347325</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7848695397879959</v>
+        <v>0.7565973768040211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7848697457673302</v>
+        <v>0.7410516786700642</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7848697457673302</v>
+        <v>0.04270157478783974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8082058249338208</v>
+        <v>0.862766372495713</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8082006876475266</v>
+        <v>0.8647582932951939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8082006876475266</v>
+        <v>-1.445468350413504</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5223810579968041</v>
+        <v>0.6797398819107157</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5223810579968041</v>
+        <v>0.5448335826361347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5223810579968041</v>
+        <v>-3.316651931249464</v>
       </c>
     </row>
   </sheetData>
